--- a/Excel/trip_8.xlsx
+++ b/Excel/trip_8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr date1904="false" showObjects="all" backupFile="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Voucher" sheetId="1" state="visible" r:id="rId4"/>
@@ -18,9 +18,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1" hidden="false" function="false" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0" hidden="false" function="false" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0" hidden="false" function="false" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
+    <definedName name="_xlnm.Print_Area_0" localSheetId="0" hidden="false" function="false" vbProcedure="false">Voucher!$A$1:$M$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1" hidden="false" function="false" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
+    <definedName name="_xlnm.Print_Area_0" localSheetId="1" hidden="false" function="false" vbProcedure="false">'Page 2'!$A$1:$M$52</definedName>
     <definedName name="_Hlt476453892" localSheetId="3" hidden="false" function="false" vbProcedure="false">instructions!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3" hidden="false" function="false" vbProcedure="false">Instructions!$A$1:$F$39</definedName>
+    <definedName name="_xlnm.Print_Area_0" localSheetId="3" hidden="false" function="false" vbProcedure="false">Instructions!$A$1:$F$39</definedName>
   </definedNames>
   <calcPr refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163" count="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="154" count="154">
   <si>
     <t>The University of Mississippi</t>
   </si>
@@ -174,67 +177,40 @@
     <t>Breakfast</t>
   </si>
   <si>
-    <t>8.79</t>
-  </si>
-  <si>
     <t>b.</t>
   </si>
   <si>
     <t>Lunch</t>
   </si>
   <si>
-    <t>4.31</t>
-  </si>
-  <si>
     <t>c.</t>
   </si>
   <si>
     <t>Dinner</t>
   </si>
   <si>
-    <t>15.64</t>
-  </si>
-  <si>
     <t>Daily Meal Totals</t>
   </si>
   <si>
     <t>Lodging*</t>
   </si>
   <si>
-    <t>77.26</t>
-  </si>
-  <si>
     <t>Total Meals and Lodging</t>
   </si>
   <si>
     <t>Meal Tips (not to exceed 20%)</t>
   </si>
   <si>
-    <t>25.68</t>
-  </si>
-  <si>
     <t>Taxi*</t>
   </si>
   <si>
-    <t>50.35</t>
-  </si>
-  <si>
     <t>Parking, Tolls*</t>
   </si>
   <si>
-    <t>12.64</t>
-  </si>
-  <si>
     <t>Gasoline*</t>
   </si>
   <si>
-    <t>43.24</t>
-  </si>
-  <si>
     <t>Business Calls*</t>
-  </si>
-  <si>
-    <t>12.69</t>
   </si>
   <si>
     <t>Total Other</t>
@@ -1460,7 +1436,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="204">
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="1" hidden="false"/>
@@ -2210,10 +2186,6 @@
       <protection locked="1" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="false" applyAlignment="1" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
-      <protection locked="1" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" shrinkToFit="false"/>
       <protection locked="1" hidden="false"/>
     </xf>
@@ -2680,22 +2652,22 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="1" showRowColHeaders="1" showZeros="false" rightToLeft="false" tabSelected="1" showOutlineSymbols="false" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="false" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="1.87264150943396" style="1" hidden="false" collapsed="false"/>
-    <col min="4" max="4" width="11.3584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="5" max="5" width="6.61320754716981" style="1" hidden="false" collapsed="false"/>
-    <col min="6" max="6" width="9.98584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="7" max="7" width="9.35849056603774" style="1" hidden="false" collapsed="false"/>
-    <col min="8" max="9" width="9.23584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="10" max="10" width="10.4858490566038" style="1" hidden="false" collapsed="false"/>
-    <col min="11" max="12" width="9.23584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="13" max="13" width="8.86320754716981" style="1" hidden="false" collapsed="false"/>
-    <col min="14" max="14" width="5.24056603773585" style="2" hidden="false" collapsed="false"/>
-    <col min="15" max="1025" width="8.98584905660377" style="2" hidden="false" collapsed="false"/>
+    <col min="4" max="4" width="11.8584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="5" max="5" width="6.86320754716981" style="1" hidden="false" collapsed="false"/>
+    <col min="6" max="6" width="10.3584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="7" max="7" width="9.73584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="8" max="9" width="9.60849056603774" style="1" hidden="false" collapsed="false"/>
+    <col min="10" max="10" width="10.8584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="11" max="12" width="9.60849056603774" style="1" hidden="false" collapsed="false"/>
+    <col min="13" max="13" width="9.23584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="14" max="14" width="5.36792452830189" style="2" hidden="false" collapsed="false"/>
+    <col min="15" max="1025" width="9.35849056603774" style="2" hidden="false" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
@@ -2892,16 +2864,16 @@
       <c r="A8" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>18</v>
+      <c r="B8" s="34" t="str">
+        <v>else</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
-      <c r="F8" s="35" t="str">
-        <v>04.12.2017</v>
-      </c>
-      <c r="G8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36" t="str">
+        <v>else</v>
+      </c>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
@@ -2948,9 +2920,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="44" t="str">
-        <v>8.79</v>
-      </c>
+      <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -2969,15 +2939,13 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="42" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" s="43"/>
-      <c r="F11" s="44" t="str">
-        <v>4.31</v>
-      </c>
+      <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="44"/>
@@ -2996,15 +2964,13 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="43"/>
-      <c r="F12" s="44" t="str">
-        <v>15.64</v>
-      </c>
+      <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
@@ -3023,7 +2989,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -3066,13 +3032,11 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="51" t="str">
-        <v>77.26</v>
-      </c>
+      <c r="F14" s="51"/>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
@@ -3091,7 +3055,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -3116,13 +3080,11 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
-      <c r="F16" s="44" t="str">
-        <v>25.68</v>
-      </c>
+      <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
@@ -3143,13 +3105,11 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
-      <c r="F17" s="44" t="str">
-        <v>50.35</v>
-      </c>
+      <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="44"/>
@@ -3170,13 +3130,11 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="44" t="str">
-        <v>12.64</v>
-      </c>
+      <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
@@ -3197,13 +3155,11 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="44" t="str">
-        <v>43.24</v>
-      </c>
+      <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="44"/>
@@ -3224,13 +3180,11 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
-      <c r="F20" s="44" t="str">
-        <v>12.69</v>
-      </c>
+      <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
@@ -3249,7 +3203,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -3272,7 +3226,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -3282,13 +3236,13 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N22" s="0"/>
       <c r="P22" s="0"/>
@@ -3296,28 +3250,28 @@
     </row>
     <row r="23" spans="1:17" customFormat="false" ht="14.1" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -3513,7 +3467,7 @@
       </c>
       <c r="C32" s="71"/>
       <c r="D32" s="89" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="E32" s="89"/>
       <c r="F32" s="89"/>
@@ -3558,16 +3512,16 @@
     </row>
     <row r="34" spans="1:13" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -3587,32 +3541,32 @@
         <v>18</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J35" s="100" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:13" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104">
@@ -3633,7 +3587,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -3652,7 +3606,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -3687,18 +3641,18 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E40" s="112">
         <f aca="false">IF(M4="Y",SUM(E36:E39,'Page 2'!E40,'Page 3'!E40),SUM(E36:E39))</f>
-        <v>69.0</v>
+        <v>192.0</v>
       </c>
       <c r="F40" s="113"/>
       <c r="G40" s="73"/>
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -3709,10 +3663,10 @@
     </row>
     <row r="41" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C41" s="117"/>
       <c r="D41" s="117"/>
@@ -3723,7 +3677,7 @@
       <c r="I41" s="118"/>
       <c r="J41" s="118"/>
       <c r="K41" s="119" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L41" s="119"/>
       <c r="M41" s="120" t="n">
@@ -3745,7 +3699,7 @@
       <c r="I42" s="121"/>
       <c r="J42" s="121"/>
       <c r="K42" s="122" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L42" s="122"/>
       <c r="M42" s="123" t="str">
@@ -3769,10 +3723,10 @@
     </row>
     <row r="44" spans="1:13" customFormat="false" ht="12.6" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A44" s="59" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B44" s="124" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C44" s="124"/>
       <c r="D44" s="124"/>
@@ -3788,7 +3742,7 @@
     </row>
     <row r="45" spans="1:13" customFormat="false" ht="17.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A45" s="102" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B45" s="124"/>
       <c r="C45" s="124"/>
@@ -3806,64 +3760,64 @@
     <row r="46" spans="1:13" customFormat="false" ht="29.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A46" s="102"/>
       <c r="B46" s="125" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C46" s="126"/>
       <c r="D46" s="126"/>
       <c r="E46" s="126"/>
       <c r="F46" s="127" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G46" s="125" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H46" s="128"/>
       <c r="I46" s="126"/>
       <c r="J46" s="129" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K46" s="130" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="L46" s="130"/>
       <c r="M46" s="131" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:13" customFormat="false" ht="16.5" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A47" s="59" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B47" s="132" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C47" s="132"/>
       <c r="D47" s="132"/>
       <c r="E47" s="133" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="F47" s="134" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G47" s="135" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H47" s="135"/>
       <c r="I47" s="134" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J47" s="136" t="s">
+        <v>78</v>
+      </c>
+      <c r="K47" s="137" t="s">
         <v>87</v>
-      </c>
-      <c r="K47" s="137" t="s">
-        <v>96</v>
       </c>
       <c r="L47" s="137"/>
       <c r="M47" s="138"/>
     </row>
     <row r="48" spans="1:13" customFormat="false" ht="16.5" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A48" s="102" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B48" s="139"/>
       <c r="C48" s="139"/>
@@ -3911,7 +3865,7 @@
     <row r="51" spans="1:13" customFormat="false" ht="12.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A51" s="102"/>
       <c r="B51" s="146" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -3920,7 +3874,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="147"/>
       <c r="I51" s="148" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -3930,7 +3884,7 @@
     <row r="52" spans="1:13" customFormat="false" ht="12" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A52" s="102"/>
       <c r="B52" s="149" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -4073,13 +4027,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="1.87264150943396" style="1" hidden="false" collapsed="false"/>
-    <col min="4" max="4" width="11.3584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="5" max="5" width="9.23584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="6" max="6" width="9.98584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="7" max="7" width="9.35849056603774" style="1" hidden="false" collapsed="false"/>
-    <col min="8" max="12" width="9.23584905660377" style="1" hidden="false" collapsed="false"/>
-    <col min="13" max="13" width="8.86320754716981" style="1" hidden="false" collapsed="false"/>
-    <col min="14" max="1025" width="8.98584905660377" style="2" hidden="false" collapsed="false"/>
+    <col min="4" max="4" width="11.8584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="5" max="5" width="9.60849056603774" style="1" hidden="false" collapsed="false"/>
+    <col min="6" max="6" width="10.3584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="7" max="7" width="9.73584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="8" max="12" width="9.60849056603774" style="1" hidden="false" collapsed="false"/>
+    <col min="13" max="13" width="9.23584905660377" style="1" hidden="false" collapsed="false"/>
+    <col min="14" max="1025" width="9.35849056603774" style="2" hidden="false" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
@@ -4109,7 +4063,7 @@
     </row>
     <row r="2" spans="1:17" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4123,7 +4077,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
       <c r="K2" s="155" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L2" s="155"/>
       <c r="M2" s="155"/>
@@ -4150,7 +4104,7 @@
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="16" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -4298,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
@@ -4343,10 +4297,10 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -4368,10 +4322,10 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
@@ -4393,7 +4347,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -4436,7 +4390,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -4459,7 +4413,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -4484,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -4509,7 +4463,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -4534,7 +4488,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
@@ -4559,7 +4513,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
@@ -4584,7 +4538,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
@@ -4607,7 +4561,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -4630,7 +4584,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -4640,13 +4594,13 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N22" s="0"/>
       <c r="P22" s="0"/>
@@ -4654,28 +4608,28 @@
     </row>
     <row r="23" spans="1:17" customFormat="false" ht="14.1" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -4917,16 +4871,16 @@
     </row>
     <row r="34" spans="1:13" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -4946,32 +4900,32 @@
         <v>18</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J35" s="100" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:13" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -4990,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -5009,7 +4963,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -5044,7 +4998,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">SUM(E36:E39)</f>
@@ -5055,7 +5009,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -5066,10 +5020,10 @@
     </row>
     <row r="41" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" s="167" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
@@ -5221,7 +5175,7 @@
     <row r="51" spans="1:13" customFormat="false" ht="12.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A51" s="168"/>
       <c r="B51" s="146" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -5230,7 +5184,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="170"/>
       <c r="I51" s="148" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -5240,7 +5194,7 @@
     <row r="52" spans="1:13" customFormat="false" ht="12" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A52" s="168"/>
       <c r="B52" s="149" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -5367,11 +5321,12 @@
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="3" width="1.87264150943396" style="0" hidden="false" collapsed="false"/>
-    <col min="4" max="4" width="11.3584905660377" style="0" hidden="false" collapsed="false"/>
-    <col min="5" max="5" width="9.23584905660377" style="0" hidden="false" collapsed="false"/>
-    <col min="6" max="6" width="9.98584905660377" style="0" hidden="false" collapsed="false"/>
-    <col min="7" max="12" width="9.23584905660377" style="0" hidden="false" collapsed="false"/>
-    <col min="14" max="1025" width="9.23584905660377" style="0" hidden="false" collapsed="false"/>
+    <col min="4" max="4" width="11.8584905660377" style="0" hidden="false" collapsed="false"/>
+    <col min="5" max="5" width="9.60849056603774" style="0" hidden="false" collapsed="false"/>
+    <col min="6" max="6" width="10.3584905660377" style="0" hidden="false" collapsed="false"/>
+    <col min="7" max="12" width="9.60849056603774" style="0" hidden="false" collapsed="false"/>
+    <col min="13" max="13" width="8.98584905660377" style="0" hidden="false" collapsed="false"/>
+    <col min="14" max="1025" width="9.60849056603774" style="0" hidden="false" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,7 +5352,7 @@
     </row>
     <row r="2" spans="1:13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5411,7 +5366,7 @@
       <c r="I2" s="172"/>
       <c r="J2" s="172"/>
       <c r="K2" s="155" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="L2" s="155"/>
       <c r="M2" s="155"/>
@@ -5563,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="163" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D9" s="163"/>
       <c r="E9" s="163"/>
@@ -5602,10 +5557,10 @@
       <c r="A11" s="38"/>
       <c r="B11" s="39"/>
       <c r="C11" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="42" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>38</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -5624,10 +5579,10 @@
       <c r="A12" s="38"/>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="44"/>
@@ -5646,7 +5601,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="46"/>
       <c r="C13" s="47" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
@@ -5686,7 +5641,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -5706,7 +5661,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="39"/>
       <c r="C15" s="52" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -5728,7 +5683,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -5750,7 +5705,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" s="41"/>
       <c r="E17" s="43"/>
@@ -5772,7 +5727,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="43"/>
@@ -5794,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="43"/>
@@ -5816,7 +5771,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="43"/>
@@ -5836,7 +5791,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="54"/>
       <c r="C21" s="56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D21" s="56"/>
       <c r="E21" s="56"/>
@@ -5856,7 +5811,7 @@
       <c r="A22" s="59"/>
       <c r="B22" s="60"/>
       <c r="C22" s="61" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D22" s="61"/>
       <c r="E22" s="61"/>
@@ -5866,39 +5821,39 @@
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
       <c r="K22" s="62" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L22" s="63" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A23" s="65" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F23" s="68"/>
       <c r="G23" s="68" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H23" s="68"/>
       <c r="I23" s="68" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="J23" s="69" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="K23" s="62"/>
       <c r="L23" s="62"/>
@@ -6115,16 +6070,16 @@
     </row>
     <row r="34" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="59" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" s="96" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C34" s="96"/>
       <c r="D34" s="96"/>
       <c r="E34" s="96"/>
       <c r="F34" s="97" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G34" s="97"/>
       <c r="H34" s="97"/>
@@ -6144,32 +6099,32 @@
         <v>18</v>
       </c>
       <c r="G35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H35" s="67"/>
       <c r="I35" s="99" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="J35" s="100" t="s">
         <v>18</v>
       </c>
       <c r="K35" s="67" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L35" s="67"/>
       <c r="M35" s="101" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A36" s="102" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B36" s="80" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="103" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D36" s="103"/>
       <c r="E36" s="104"/>
@@ -6188,7 +6143,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="103" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D37" s="103"/>
       <c r="E37" s="104"/>
@@ -6207,7 +6162,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="103" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D38" s="103"/>
       <c r="E38" s="104"/>
@@ -6242,7 +6197,7 @@
       <c r="B40" s="109"/>
       <c r="C40" s="110"/>
       <c r="D40" s="111" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E40" s="112" t="n">
         <f aca="false">SUM(E36:E39)</f>
@@ -6253,7 +6208,7 @@
       <c r="H40" s="73"/>
       <c r="I40" s="114"/>
       <c r="J40" s="115" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K40" s="115"/>
       <c r="L40" s="115"/>
@@ -6264,10 +6219,10 @@
     </row>
     <row r="41" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="59" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B41" s="167" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C41" s="167"/>
       <c r="D41" s="167"/>
@@ -6419,7 +6374,7 @@
     <row r="51" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="168"/>
       <c r="B51" s="146" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C51" s="146"/>
       <c r="D51" s="146"/>
@@ -6428,7 +6383,7 @@
       <c r="G51" s="146"/>
       <c r="H51" s="170"/>
       <c r="I51" s="148" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="J51" s="148"/>
       <c r="K51" s="148"/>
@@ -6438,7 +6393,7 @@
     <row r="52" spans="1:13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="168"/>
       <c r="B52" s="149" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C52" s="150"/>
       <c r="D52" s="150"/>
@@ -6561,17 +6516,17 @@
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="2.49528301886792" style="175" hidden="false" collapsed="false"/>
-    <col min="2" max="2" width="12.3537735849057" style="175" hidden="false" collapsed="false"/>
-    <col min="3" max="3" width="22.8396226415094" style="175" hidden="false" collapsed="false"/>
-    <col min="4" max="4" width="42.6839622641509" style="175" hidden="false" collapsed="false"/>
-    <col min="5" max="5" width="9.98584905660377" style="175" hidden="false" collapsed="false"/>
-    <col min="6" max="6" width="7.24056603773585" style="175" hidden="false" collapsed="false"/>
-    <col min="7" max="1025" width="11.4811320754717" style="175" hidden="false" collapsed="false"/>
+    <col min="2" max="2" width="12.8537735849057" style="175" hidden="false" collapsed="false"/>
+    <col min="3" max="3" width="23.8396226415094" style="175" hidden="false" collapsed="false"/>
+    <col min="4" max="4" width="44.5566037735849" style="175" hidden="false" collapsed="false"/>
+    <col min="5" max="5" width="10.3584905660377" style="175" hidden="false" collapsed="false"/>
+    <col min="6" max="6" width="7.49056603773585" style="175" hidden="false" collapsed="false"/>
+    <col min="7" max="1025" width="11.9811320754717" style="175" hidden="false" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1024" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="176" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B1" s="176"/>
       <c r="C1" s="176"/>
@@ -7599,7 +7554,7 @@
     </row>
     <row r="2" spans="1:1024" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A2" s="177" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B2" s="177"/>
       <c r="C2" s="177"/>
@@ -8627,7 +8582,7 @@
     </row>
     <row r="3" spans="1:6" s="179" customFormat="1" ht="36.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A3" s="178" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" s="178"/>
       <c r="C3" s="178"/>
@@ -8637,7 +8592,7 @@
     </row>
     <row r="4" spans="1:6" s="179" customFormat="1" ht="12.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A4" s="178" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="178"/>
@@ -8647,7 +8602,7 @@
     </row>
     <row r="5" spans="1:6" s="179" customFormat="1" ht="12.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A5" s="180" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B5" s="180"/>
       <c r="C5" s="180"/>
@@ -8657,7 +8612,7 @@
     </row>
     <row r="6" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A6" s="181" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B6" s="181"/>
       <c r="C6" s="181"/>
@@ -8667,7 +8622,7 @@
     </row>
     <row r="7" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A7" s="178" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B7" s="178"/>
       <c r="C7" s="178"/>
@@ -8678,13 +8633,13 @@
     <row r="8" spans="1:6" s="179" customFormat="1" ht="13.5" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A8" s="182"/>
       <c r="B8" s="183" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C8" s="183" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D8" s="184" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E8" s="184"/>
       <c r="F8" s="184"/>
@@ -8694,13 +8649,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="186" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C9" s="187" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D9" s="188" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E9" s="188"/>
       <c r="F9" s="188"/>
@@ -8710,110 +8665,110 @@
         <v>2</v>
       </c>
       <c r="B10" s="186" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="188" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+    </row>
+    <row r="11" spans="1:6" s="179" customFormat="1" ht="42" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A11" s="190" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="191" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="192" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="193" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+    </row>
+    <row r="12" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A12" s="194" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="195" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="189" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+    </row>
+    <row r="13" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A13" s="194" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="188" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="189" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="190" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-    </row>
-    <row r="11" spans="1:6" s="179" customFormat="1" ht="42" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A11" s="191" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="192" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" s="194" t="s">
-        <v>124</v>
-      </c>
-      <c r="E11" s="194"/>
-      <c r="F11" s="194"/>
-    </row>
-    <row r="12" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A12" s="195" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="196" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="190" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-    </row>
-    <row r="13" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A13" s="195" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="189" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="196" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="194" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="194"/>
-      <c r="F13" s="194"/>
+      <c r="C13" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="193" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
     </row>
     <row r="14" spans="1:6" s="179" customFormat="1" ht="27" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A14" s="185" t="n">
         <v>6</v>
       </c>
       <c r="B14" s="186" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C14" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="190" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
+        <v>117</v>
+      </c>
+      <c r="D14" s="189" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
     </row>
     <row r="15" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A15" s="185" t="n">
         <v>7</v>
       </c>
       <c r="B15" s="186" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C15" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="190" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
+        <v>117</v>
+      </c>
+      <c r="D15" s="189" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
     </row>
     <row r="16" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A16" s="197" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
-      <c r="D16" s="197"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="197"/>
+      <c r="A16" s="196" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="196"/>
+      <c r="C16" s="196"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="196"/>
+      <c r="F16" s="196"/>
     </row>
     <row r="17" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A17" s="178" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B17" s="178"/>
       <c r="C17" s="178"/>
@@ -8822,140 +8777,140 @@
       <c r="F17" s="178"/>
     </row>
     <row r="18" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A18" s="198" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="198"/>
+      <c r="A18" s="197" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="197"/>
       <c r="C18" s="183" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D18" s="184" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E18" s="184"/>
       <c r="F18" s="184"/>
     </row>
     <row r="19" spans="1:6" s="179" customFormat="1" ht="34.5" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A19" s="199" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="199"/>
-      <c r="C19" s="200" t="s">
-        <v>135</v>
+      <c r="A19" s="198" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="198"/>
+      <c r="C19" s="199" t="s">
+        <v>126</v>
       </c>
       <c r="D19" s="188" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E19" s="188"/>
       <c r="F19" s="188"/>
     </row>
-    <row r="20" spans="1:6" s="179" customFormat="1" ht="29.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A20" s="199" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="199"/>
-      <c r="C20" s="201" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="190" t="s">
-        <v>138</v>
-      </c>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-    </row>
-    <row r="21" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A21" s="199" t="s">
-        <v>139</v>
-      </c>
-      <c r="B21" s="199"/>
+    <row r="20" spans="1:6" customFormat="false" ht="29.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A20" s="198" t="s">
+        <v>128</v>
+      </c>
+      <c r="B20" s="198"/>
+      <c r="C20" s="200" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="189" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+    </row>
+    <row r="21" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A21" s="198" t="s">
+        <v>130</v>
+      </c>
+      <c r="B21" s="198"/>
       <c r="C21" s="186" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="190" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-    </row>
-    <row r="22" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A22" s="199" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="199"/>
+        <v>117</v>
+      </c>
+      <c r="D21" s="189" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+    </row>
+    <row r="22" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A22" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" s="198"/>
       <c r="C22" s="186" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D22" s="188" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E22" s="188"/>
       <c r="F22" s="188"/>
     </row>
-    <row r="23" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A23" s="197" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-    </row>
-    <row r="24" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A23" s="196" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="196"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="196"/>
+      <c r="F23" s="196"/>
+    </row>
+    <row r="24" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A24" s="184" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B24" s="184"/>
       <c r="C24" s="183" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D24" s="184" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E24" s="184"/>
       <c r="F24" s="184"/>
     </row>
-    <row r="25" spans="1:6" s="179" customFormat="1" ht="37.5" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A25" s="190" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="190"/>
-      <c r="C25" s="202" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-    </row>
-    <row r="26" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A26" s="190" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="190"/>
-      <c r="C26" s="202" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="190" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-    </row>
-    <row r="27" spans="1:6" s="179" customFormat="1" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A27" s="197" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="197"/>
-      <c r="C27" s="197"/>
-      <c r="D27" s="197"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="197"/>
+    <row r="25" spans="1:6" customFormat="false" ht="37.5" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A25" s="189" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="189"/>
+      <c r="C25" s="201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="189" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="189"/>
+      <c r="F25" s="189"/>
+    </row>
+    <row r="26" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A26" s="189" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="189"/>
+      <c r="C26" s="201" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="189" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+    </row>
+    <row r="27" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A27" s="196" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="196"/>
+      <c r="C27" s="196"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
     </row>
     <row r="28" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A28" s="181" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B28" s="181"/>
       <c r="C28" s="181"/>
@@ -8964,130 +8919,130 @@
       <c r="F28" s="181"/>
     </row>
     <row r="29" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A29" s="203" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="203"/>
-      <c r="C29" s="203"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="203"/>
-      <c r="F29" s="203"/>
+      <c r="A29" s="202" t="s">
+        <v>140</v>
+      </c>
+      <c r="B29" s="202"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
     </row>
     <row r="30" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
       <c r="A30" s="184" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B30" s="184"/>
       <c r="C30" s="184" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D30" s="184"/>
       <c r="E30" s="184"/>
       <c r="F30" s="184"/>
     </row>
     <row r="31" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A31" s="190" t="s">
+      <c r="A31" s="189" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+    </row>
+    <row r="32" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A32" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="189"/>
+      <c r="C32" s="189" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+    </row>
+    <row r="33" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A33" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" s="189"/>
+      <c r="C33" s="189" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+    </row>
+    <row r="34" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A34" s="189" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" s="189"/>
+      <c r="C34" s="189" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+    </row>
+    <row r="35" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A35" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="189"/>
+      <c r="C35" s="189" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+    </row>
+    <row r="36" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A36" s="189" t="s">
+        <v>145</v>
+      </c>
+      <c r="B36" s="189"/>
+      <c r="C36" s="189" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+    </row>
+    <row r="37" spans="1:6" customFormat="false" ht="29.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A37" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="189"/>
+      <c r="C37" s="189" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="190"/>
-      <c r="C31" s="190" t="s">
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+    </row>
+    <row r="38" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A38" s="196" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="190"/>
-      <c r="E31" s="190"/>
-      <c r="F31" s="190"/>
-    </row>
-    <row r="32" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A32" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" s="190"/>
-      <c r="C32" s="190" t="s">
+      <c r="B38" s="196"/>
+      <c r="C38" s="196"/>
+      <c r="D38" s="196"/>
+      <c r="E38" s="196"/>
+      <c r="F38" s="196"/>
+    </row>
+    <row r="39" spans="1:6" customFormat="false" ht="29.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
+      <c r="A39" s="203" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="190"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="190"/>
-    </row>
-    <row r="33" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A33" s="190" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="190"/>
-      <c r="C33" s="190" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-    </row>
-    <row r="34" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A34" s="190" t="s">
-        <v>156</v>
-      </c>
-      <c r="B34" s="190"/>
-      <c r="C34" s="190" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="190"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="190"/>
-    </row>
-    <row r="35" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A35" s="190" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="190"/>
-      <c r="C35" s="190" t="s">
-        <v>158</v>
-      </c>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-    </row>
-    <row r="36" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A36" s="190" t="s">
-        <v>154</v>
-      </c>
-      <c r="B36" s="190"/>
-      <c r="C36" s="190" t="s">
-        <v>155</v>
-      </c>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-    </row>
-    <row r="37" spans="1:6" customFormat="false" ht="29.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A37" s="190" t="s">
-        <v>159</v>
-      </c>
-      <c r="B37" s="190"/>
-      <c r="C37" s="190" t="s">
-        <v>160</v>
-      </c>
-      <c r="D37" s="190"/>
-      <c r="E37" s="190"/>
-      <c r="F37" s="190"/>
-    </row>
-    <row r="38" spans="1:6" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A38" s="197" t="s">
-        <v>161</v>
-      </c>
-      <c r="B38" s="197"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="197"/>
-      <c r="E38" s="197"/>
-      <c r="F38" s="197"/>
-    </row>
-    <row r="39" spans="1:6" customFormat="false" ht="29.25" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
-      <c r="A39" s="204" t="s">
-        <v>162</v>
-      </c>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
+      <c r="B39" s="203"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
     </row>
   </sheetData>
   <sheetProtection password="d144" sheet="1" objects="1" scenarios="1"/>
